--- a/assignmentnew.xlsx
+++ b/assignmentnew.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -278,6 +278,87 @@
   </x:si>
   <x:si>
     <x:t>TestScenario_8.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields to enter to create a new Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Contract Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Contract Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Contract Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Order Start Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Order Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Order Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Order with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saved changes successfully for the Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab,  and click on existing Order name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Order selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Order name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Order successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab,  and click on existing Order to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields to modify for an existing Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab,  and click on existing Order to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Order successfully</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -361,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J43" totalsRowShown="0">
-  <x:autoFilter ref="A1:J43"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J59" totalsRowShown="0">
+  <x:autoFilter ref="A1:J59"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -667,7 +748,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J43"/>
+  <x:dimension ref="A1:J59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1605,6 +1686,342 @@
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
     </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s"/>
+      <x:c r="F52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
